--- a/doc/design/spreadsheets/bitout.xlsx
+++ b/doc/design/spreadsheets/bitout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh\Dropbox\Documents\Thesis\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh\Dropbox\Documents\Thesis\doc\design\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,144 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
-  <si>
-    <r>
-      <t>010</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>011</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>101</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Send Data
 Alignment&lt;7&gt;</t>
   </si>
   <si>
-    <t>Vertical Correction
-Alignment&lt;2:0&gt;</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -187,38 +55,6 @@
   </si>
   <si>
     <t>+3</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <t>forthcoming data is invalid</t>
@@ -231,15 +67,172 @@
 Alignment&lt;3&gt;</t>
   </si>
   <si>
-    <t>Horizontal Correction
-Alignment&lt;6:4&gt;</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>010</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>Horizontal Alignment
+Correction &lt;6:4&gt;</t>
+  </si>
+  <si>
+    <t>Vertical Alignment
+Correction &lt;2:0&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,12 +241,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,20 +281,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -300,6 +405,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="E1:G9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="E1:G9">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Bits" dataDxfId="2"/>
+    <tableColumn id="2" name="Horizontal Alignment_x000a_Correction &lt;6:4&gt;" dataDxfId="1"/>
+    <tableColumn id="3" name="Vertical Alignment_x000a_Correction &lt;2:0&gt;" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,146 +723,153 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="3" width="23.84375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.23046875" style="1"/>
-    <col min="6" max="7" width="21.61328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.23046875" style="3"/>
+    <col min="2" max="3" width="23.84375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" style="4"/>
+    <col min="5" max="5" width="10.84375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="21.61328125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>